--- a/biology/Biochimie/Transcétolase/Transcétolase.xlsx
+++ b/biology/Biochimie/Transcétolase/Transcétolase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transc%C3%A9tolase</t>
+          <t>Transcétolase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La transcétolase est une transférase qui catalyse la réaction :
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transc%C3%A9tolase</t>
+          <t>Transcétolase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,9 +529,11 @@
           <t>Transcétolase et cancers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les cellules cancéreuses subissent une augmentation du stress oxydatif, elles combattent ce stress par la voie du pentose phosphate (PPP) qui génère des antioxydants (NADPH)[3]. Or la transcétolase (TKT) (en tant qu'enzyme participant au processus du PPP) est nécessaire à ce phénomène[3] ; elle participe donc à la croissance du cancer dans lequel elle limite le stress oxydatif. Elle a donc a été proposée comme cible adjointe de projets de nouveaux traitements anticancéreux ; il s'agira alors de rendre les cellules cancéreuses plus vulnérables à un traitement ciblé existant (ex sorafénib) en diminuant leur capacité de résistance au stress oxydatif[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les cellules cancéreuses subissent une augmentation du stress oxydatif, elles combattent ce stress par la voie du pentose phosphate (PPP) qui génère des antioxydants (NADPH). Or la transcétolase (TKT) (en tant qu'enzyme participant au processus du PPP) est nécessaire à ce phénomène ; elle participe donc à la croissance du cancer dans lequel elle limite le stress oxydatif. Elle a donc a été proposée comme cible adjointe de projets de nouveaux traitements anticancéreux ; il s'agira alors de rendre les cellules cancéreuses plus vulnérables à un traitement ciblé existant (ex sorafénib) en diminuant leur capacité de résistance au stress oxydatif. 
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transc%C3%A9tolase</t>
+          <t>Transcétolase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette enzyme catalyse en sens opposé deux réactions réversibles dans ces deux voies métaboliques :
 Dans la première réaction catalysée par la transcétolase dans la voie des pentoses phosphates, la thiamine pyrophosphate accepte un fragment à deux atomes de carbone du D-xylulose-5-phosphate, un cétose à cinq atomes de carbone, et transfère ce fragment au D-ribose-5-phosphate, un aldose à cinq atomes de carbone, pour former du sédoheptulose-7-phosphate, un cétose à sept atomes de carbone, ainsi que du glycéraldéhyde-3-phosphate, un aldose à trois atomes de carbone ; dans le cycle de Calvin, la transcétolase catalyse la réaction inverse, c'est-à-dire la conversion du sédoheptulose-7-phosphate et du glycéraldéhyde-3-phosphate en ribose-5-phosphate et xylulose-5-phosphate, ce qui constitue la seconde intervention de cette enzyme dans cette voie métabolique.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transc%C3%A9tolase</t>
+          <t>Transcétolase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Chez les mammifères</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les mammifères la transcétolase relie la voie des penstoses phosphates à la glycolyse, permettant de métaboliser l'excès de sucres par la principale voie de dégradation des glucides. 
 Elle est indispensable à la production de NADPH + H+, particulièrement dans les tissus ayant une forte activité biosynthétique, comme la lipogenèse par le foie et les glandes mammaires ou encore la synthèse des stéroïdes dans le foie les glandes surrénales.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transc%C3%A9tolase</t>
+          <t>Transcétolase</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Utilité en médecine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'activité érythrocytaire de la trancétolase peut être mesurée, afin de confirmer le diagnostic de déficit en thiamine. En pratique, l'intérêt d'un tel dosage est limité[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activité érythrocytaire de la trancétolase peut être mesurée, afin de confirmer le diagnostic de déficit en thiamine. En pratique, l'intérêt d'un tel dosage est limité.
 </t>
         </is>
       </c>
